--- a/NetAgent/src/main/resources/NetShipOnHand_NA.xlsx
+++ b/NetAgent/src/main/resources/NetShipOnHand_NA.xlsx
@@ -374,7 +374,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/17/2022 1:44 AM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
+&amp;"-,Regular"6/19/2022 9:47 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>

--- a/NetAgent/src/main/resources/NetShipOnHand_NA.xlsx
+++ b/NetAgent/src/main/resources/NetShipOnHand_NA.xlsx
@@ -374,7 +374,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/19/2022 9:47 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
+&amp;"-,Regular"6/21/2022 12:44 AM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
